--- a/tests/data/ci_v2_data_exp.xlsx
+++ b/tests/data/ci_v2_data_exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-core-provenance/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621AB726-40B7-D04A-A727-CBFCBBB71CD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE0F46-87E5-294F-A6F2-2DA62D969999}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20960" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,10 +225,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000000000000000000000000"/>
+    <numFmt numFmtId="188" formatCode="0.000000000000000000000000"/>
+    <numFmt numFmtId="207" formatCode="0.000000000000000000000E+00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -383,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -410,9 +411,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,13 +799,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="12" max="24" width="27.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1200,57 +1203,57 @@
       <c r="K10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="28">
-        <f>$F3*(1+$G3)^DATEDIF($J3,L8, "M")</f>
+      <c r="L10" s="27">
+        <f>$F3*(1+$G3)^(DATEDIF($J3,L8, "M") / 12)</f>
         <v>20</v>
       </c>
-      <c r="M10" s="28">
-        <f>$F3*(1+$G3)^DATEDIF($J3,M8, "M")</f>
+      <c r="M10" s="27">
+        <f t="shared" ref="M10:X10" si="1">$F3*(1+$G3)^(DATEDIF($J3,M8, "M") / 12)</f>
+        <v>21.189261887185907</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="1"/>
+        <v>22.44924096618746</v>
+      </c>
+      <c r="O10" s="27">
+        <f t="shared" si="1"/>
+        <v>23.78414230005442</v>
+      </c>
+      <c r="P10" s="27">
+        <f t="shared" si="1"/>
+        <v>25.198420997897465</v>
+      </c>
+      <c r="Q10" s="27">
+        <f t="shared" si="1"/>
+        <v>26.696797083400689</v>
+      </c>
+      <c r="R10" s="27">
+        <f t="shared" si="1"/>
+        <v>28.284271247461902</v>
+      </c>
+      <c r="S10" s="27">
+        <f t="shared" si="1"/>
+        <v>29.96614153753363</v>
+      </c>
+      <c r="T10" s="27">
+        <f t="shared" si="1"/>
+        <v>31.748021039363987</v>
+      </c>
+      <c r="U10" s="27">
+        <f t="shared" si="1"/>
+        <v>33.635856610148579</v>
+      </c>
+      <c r="V10" s="27">
+        <f t="shared" si="1"/>
+        <v>35.635948725613574</v>
+      </c>
+      <c r="W10" s="27">
+        <f t="shared" si="1"/>
+        <v>37.754972507267738</v>
+      </c>
+      <c r="X10" s="27">
+        <f t="shared" si="1"/>
         <v>40</v>
-      </c>
-      <c r="N10" s="28">
-        <f t="shared" ref="N10:V10" si="1">$F3*(1+$G3)^DATEDIF($J3,N8, "M")</f>
-        <v>80</v>
-      </c>
-      <c r="O10" s="28">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="P10" s="28">
-        <f t="shared" si="1"/>
-        <v>320</v>
-      </c>
-      <c r="Q10" s="28">
-        <f t="shared" si="1"/>
-        <v>640</v>
-      </c>
-      <c r="R10" s="28">
-        <f t="shared" si="1"/>
-        <v>1280</v>
-      </c>
-      <c r="S10" s="28">
-        <f t="shared" si="1"/>
-        <v>2560</v>
-      </c>
-      <c r="T10" s="28">
-        <f t="shared" si="1"/>
-        <v>5120</v>
-      </c>
-      <c r="U10" s="28">
-        <f t="shared" si="1"/>
-        <v>10240</v>
-      </c>
-      <c r="V10" s="28">
-        <f t="shared" si="1"/>
-        <v>20480</v>
-      </c>
-      <c r="W10" s="28">
-        <f>$F3*(1+$G3)^DATEDIF($J3,W8, "M")</f>
-        <v>40960</v>
-      </c>
-      <c r="X10" s="28">
-        <f>$F3*(1+$G3)^DATEDIF($J3,X8, "M")</f>
-        <v>81920</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -1485,61 +1488,61 @@
       <c r="K15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="28">
         <f>L9*$F10*L10*$F11*$F13</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="28">
         <f t="shared" ref="M15:X15" si="5">M9*$F10*M10*$F11*$F13</f>
+        <v>2.118926188718591E-4</v>
+      </c>
+      <c r="N15" s="28">
+        <f t="shared" si="5"/>
+        <v>2.2449240966187462E-4</v>
+      </c>
+      <c r="O15" s="28">
+        <f t="shared" si="5"/>
+        <v>2.3784142300054421E-4</v>
+      </c>
+      <c r="P15" s="28">
+        <f t="shared" si="5"/>
+        <v>2.5198420997897466E-4</v>
+      </c>
+      <c r="Q15" s="28">
+        <f t="shared" si="5"/>
+        <v>2.6696797083400694E-4</v>
+      </c>
+      <c r="R15" s="28">
+        <f t="shared" si="5"/>
+        <v>2.8284271247461907E-4</v>
+      </c>
+      <c r="S15" s="28">
+        <f t="shared" si="5"/>
+        <v>2.9966141537533634E-4</v>
+      </c>
+      <c r="T15" s="28">
+        <f t="shared" si="5"/>
+        <v>3.1748021039363988E-4</v>
+      </c>
+      <c r="U15" s="28">
+        <f t="shared" si="5"/>
+        <v>3.3635856610148582E-4</v>
+      </c>
+      <c r="V15" s="28">
+        <f t="shared" si="5"/>
+        <v>3.5635948725613577E-4</v>
+      </c>
+      <c r="W15" s="28">
+        <f t="shared" si="5"/>
+        <v>3.7754972507267738E-4</v>
+      </c>
+      <c r="X15" s="28">
+        <f t="shared" si="5"/>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="N15" s="16">
-        <f t="shared" si="5"/>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="O15" s="16">
-        <f t="shared" si="5"/>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="P15" s="16">
-        <f t="shared" si="5"/>
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="Q15" s="16">
-        <f t="shared" si="5"/>
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="R15" s="16">
-        <f t="shared" si="5"/>
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="S15" s="16">
-        <f t="shared" si="5"/>
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="T15" s="16">
-        <f t="shared" si="5"/>
-        <v>5.1200000000000002E-2</v>
-      </c>
-      <c r="U15" s="16">
-        <f t="shared" si="5"/>
-        <v>0.1024</v>
-      </c>
-      <c r="V15" s="16">
-        <f t="shared" si="5"/>
-        <v>0.20480000000000001</v>
-      </c>
-      <c r="W15" s="16">
-        <f t="shared" si="5"/>
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="X15" s="16">
-        <f t="shared" si="5"/>
-        <v>0.81920000000000004</v>
-      </c>
-      <c r="Z15" s="27">
+      <c r="Z15" s="26">
         <f>SUM(L15:X15)</f>
-        <v>1.6381999999999999</v>
+        <v>3.7634307490211532E-3</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1552,51 +1555,51 @@
       </c>
       <c r="M16" s="24">
         <f t="shared" ref="M16:X16" si="6">M10*M12*$F12</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.6486577358982386E-3</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="6"/>
-        <v>0.01</v>
+        <v>2.8061551207734323E-3</v>
       </c>
       <c r="O16" s="24">
         <f t="shared" si="6"/>
-        <v>0.02</v>
+        <v>2.9730177875068025E-3</v>
       </c>
       <c r="P16" s="24">
         <f t="shared" si="6"/>
-        <v>0.04</v>
+        <v>3.1498026247371832E-3</v>
       </c>
       <c r="Q16" s="24">
         <f t="shared" si="6"/>
-        <v>0.08</v>
+        <v>3.3370996354250863E-3</v>
       </c>
       <c r="R16" s="24">
         <f t="shared" si="6"/>
-        <v>0.16</v>
+        <v>3.5355339059327381E-3</v>
       </c>
       <c r="S16" s="24">
         <f t="shared" si="6"/>
-        <v>0.32</v>
+        <v>3.7457676921917038E-3</v>
       </c>
       <c r="T16" s="24">
         <f t="shared" si="6"/>
-        <v>0.64</v>
+        <v>3.9685026299204991E-3</v>
       </c>
       <c r="U16" s="24">
         <f t="shared" si="6"/>
-        <v>1.28</v>
+        <v>4.2044820762685729E-3</v>
       </c>
       <c r="V16" s="24">
         <f t="shared" si="6"/>
-        <v>2.56</v>
+        <v>4.4544935907016971E-3</v>
       </c>
       <c r="W16" s="24">
         <f t="shared" si="6"/>
-        <v>5.12</v>
+        <v>4.7193715634084674E-3</v>
       </c>
       <c r="X16" s="24">
         <f t="shared" si="6"/>
-        <v>10.24</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.2">
@@ -1644,61 +1647,61 @@
       <c r="K18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="29">
         <f>L16*L11*$F13*$F14</f>
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="29">
         <f t="shared" ref="M18:X18" si="7">M16*M11*$F13*$F14</f>
+        <v>5.297315471796477E-8</v>
+      </c>
+      <c r="N18" s="29">
+        <f t="shared" si="7"/>
+        <v>5.6123102415468647E-8</v>
+      </c>
+      <c r="O18" s="29">
+        <f t="shared" si="7"/>
+        <v>5.9460355750136046E-8</v>
+      </c>
+      <c r="P18" s="29">
+        <f t="shared" si="7"/>
+        <v>6.2996052494743653E-8</v>
+      </c>
+      <c r="Q18" s="29">
+        <f t="shared" si="7"/>
+        <v>6.6741992708501728E-8</v>
+      </c>
+      <c r="R18" s="29">
+        <f t="shared" si="7"/>
+        <v>7.0710678118654758E-8</v>
+      </c>
+      <c r="S18" s="29">
+        <f t="shared" si="7"/>
+        <v>7.4915353843834077E-8</v>
+      </c>
+      <c r="T18" s="29">
+        <f t="shared" si="7"/>
+        <v>7.9370052598409976E-8</v>
+      </c>
+      <c r="U18" s="29">
+        <f t="shared" si="7"/>
+        <v>8.408964152537146E-8</v>
+      </c>
+      <c r="V18" s="29">
+        <f t="shared" si="7"/>
+        <v>8.9089871814033941E-8</v>
+      </c>
+      <c r="W18" s="29">
+        <f t="shared" si="7"/>
+        <v>9.4387431268169333E-8</v>
+      </c>
+      <c r="X18" s="29">
+        <f t="shared" si="7"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="N18" s="24">
-        <f t="shared" si="7"/>
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="O18" s="24">
-        <f t="shared" si="7"/>
-        <v>3.9999999999999998E-7</v>
-      </c>
-      <c r="P18" s="24">
-        <f t="shared" si="7"/>
-        <v>7.9999999999999996E-7</v>
-      </c>
-      <c r="Q18" s="24">
-        <f t="shared" si="7"/>
-        <v>1.5999999999999999E-6</v>
-      </c>
-      <c r="R18" s="24">
-        <f t="shared" si="7"/>
-        <v>3.1999999999999999E-6</v>
-      </c>
-      <c r="S18" s="24">
-        <f t="shared" si="7"/>
-        <v>6.3999999999999997E-6</v>
-      </c>
-      <c r="T18" s="24">
-        <f t="shared" si="7"/>
-        <v>1.2799999999999999E-5</v>
-      </c>
-      <c r="U18" s="24">
-        <f t="shared" si="7"/>
-        <v>2.5599999999999999E-5</v>
-      </c>
-      <c r="V18" s="24">
-        <f t="shared" si="7"/>
-        <v>5.1199999999999998E-5</v>
-      </c>
-      <c r="W18" s="24">
-        <f t="shared" si="7"/>
-        <v>1.024E-4</v>
-      </c>
-      <c r="X18" s="24">
-        <f t="shared" si="7"/>
-        <v>2.0479999999999999E-4</v>
-      </c>
-      <c r="Z18" s="27">
+      <c r="Z18" s="26">
         <f>SUM(L18:X18)</f>
-        <v>4.0954999999999995E-4</v>
+        <v>9.4085768725528831E-7</v>
       </c>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
@@ -1731,51 +1734,51 @@
       </c>
       <c r="M19" s="24">
         <f t="shared" ref="M19:X19" si="8">M16</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.6486577358982386E-3</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="8"/>
-        <v>0.01</v>
+        <v>2.8061551207734323E-3</v>
       </c>
       <c r="O19" s="24">
         <f t="shared" si="8"/>
-        <v>0.02</v>
+        <v>2.9730177875068025E-3</v>
       </c>
       <c r="P19" s="24">
         <f t="shared" si="8"/>
-        <v>0.04</v>
+        <v>3.1498026247371832E-3</v>
       </c>
       <c r="Q19" s="24">
         <f t="shared" si="8"/>
-        <v>0.08</v>
+        <v>3.3370996354250863E-3</v>
       </c>
       <c r="R19" s="24">
         <f t="shared" si="8"/>
-        <v>0.16</v>
+        <v>3.5355339059327381E-3</v>
       </c>
       <c r="S19" s="24">
         <f t="shared" si="8"/>
-        <v>0.32</v>
+        <v>3.7457676921917038E-3</v>
       </c>
       <c r="T19" s="24">
         <f t="shared" si="8"/>
-        <v>0.64</v>
+        <v>3.9685026299204991E-3</v>
       </c>
       <c r="U19" s="24">
         <f t="shared" si="8"/>
-        <v>1.28</v>
+        <v>4.2044820762685729E-3</v>
       </c>
       <c r="V19" s="24">
         <f t="shared" si="8"/>
-        <v>2.56</v>
+        <v>4.4544935907016971E-3</v>
       </c>
       <c r="W19" s="24">
         <f t="shared" si="8"/>
-        <v>5.12</v>
+        <v>4.7193715634084674E-3</v>
       </c>
       <c r="X19" s="24">
         <f t="shared" si="8"/>
-        <v>10.24</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.2">
@@ -1808,55 +1811,55 @@
       </c>
       <c r="M21" s="24">
         <f t="shared" ref="M21:X21" si="9">M19*M11*$F14*$F13</f>
-        <v>9.9999999999999995E-8</v>
+        <v>5.297315471796477E-8</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="9"/>
-        <v>1.9999999999999999E-7</v>
+        <v>5.6123102415468647E-8</v>
       </c>
       <c r="O21" s="24">
         <f t="shared" si="9"/>
-        <v>3.9999999999999998E-7</v>
+        <v>5.9460355750136046E-8</v>
       </c>
       <c r="P21" s="24">
         <f t="shared" si="9"/>
-        <v>7.9999999999999996E-7</v>
+        <v>6.2996052494743653E-8</v>
       </c>
       <c r="Q21" s="24">
         <f t="shared" si="9"/>
-        <v>1.5999999999999999E-6</v>
+        <v>6.6741992708501728E-8</v>
       </c>
       <c r="R21" s="24">
         <f t="shared" si="9"/>
-        <v>3.1999999999999999E-6</v>
+        <v>7.0710678118654758E-8</v>
       </c>
       <c r="S21" s="24">
         <f t="shared" si="9"/>
-        <v>6.3999999999999997E-6</v>
+        <v>7.4915353843834077E-8</v>
       </c>
       <c r="T21" s="24">
         <f t="shared" si="9"/>
-        <v>1.2799999999999999E-5</v>
+        <v>7.9370052598409976E-8</v>
       </c>
       <c r="U21" s="24">
         <f t="shared" si="9"/>
-        <v>2.5599999999999999E-5</v>
+        <v>8.408964152537146E-8</v>
       </c>
       <c r="V21" s="24">
         <f t="shared" si="9"/>
-        <v>5.1199999999999998E-5</v>
+        <v>8.9089871814033941E-8</v>
       </c>
       <c r="W21" s="24">
         <f t="shared" si="9"/>
-        <v>1.024E-4</v>
+        <v>9.4387431268169333E-8</v>
       </c>
       <c r="X21" s="24">
         <f t="shared" si="9"/>
-        <v>2.0479999999999999E-4</v>
-      </c>
-      <c r="Z21" s="27">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Z21" s="26">
         <f>SUM(L21:X21)</f>
-        <v>4.0954999999999995E-4</v>
+        <v>9.4085768725528831E-7</v>
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.2">

--- a/tests/data/ci_v2_data_exp.xlsx
+++ b/tests/data/ci_v2_data_exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-core-provenance/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE0F46-87E5-294F-A6F2-2DA62D969999}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C647DB30-A6C4-0D41-A03D-19E5E884EA6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20960" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>variable</t>
-  </si>
-  <si>
-    <t>scenario</t>
-  </si>
-  <si>
-    <t>group</t>
   </si>
   <si>
     <t>type</t>
@@ -227,9 +221,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000000000000000000000000000000"/>
-    <numFmt numFmtId="188" formatCode="0.000000000000000000000000"/>
-    <numFmt numFmtId="207" formatCode="0.000000000000000000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000000000000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000000000000E+00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -411,10 +405,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,15 +793,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="12" max="24" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="10" max="22" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -820,13 +814,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -835,13 +829,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -853,7 +847,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -862,225 +856,219 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
         <v>36000000</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="H2" s="5">
         <v>43617</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2">
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="U2">
+      <c r="S2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>43466</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23">
-        <v>20</v>
-      </c>
-      <c r="G3">
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>43466</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
+      <c r="S3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="H4" s="5">
         <v>42522</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4">
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="U4">
+      <c r="S4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="6">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6">
         <v>1000000</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="H5" s="5">
         <v>43617</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5">
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="U5">
+      <c r="S5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
+        <v>43617</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H7" s="5"/>
+      <c r="J7">
+        <f>DATEDIF(L8, $H3, "M")</f>
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>43617</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="J7" s="5"/>
-      <c r="L7">
-        <f>DATEDIF(L8, $J3, "M")</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="18" t="e">
-        <f>DATEDIF(M8, $J3, "M")</f>
+      <c r="K7" s="18" t="e">
+        <f>DATEDIF(M8, $H3, "M")</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="8"/>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L8" s="5">
         <v>43466</v>
@@ -1124,21 +1112,21 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10">
         <v>72000000</v>
       </c>
       <c r="F9" s="4"/>
       <c r="K9" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9">
-        <f>$F2</f>
+        <f>$D2</f>
         <v>36000000</v>
       </c>
       <c r="M9" s="18">
-        <f t="shared" ref="M9:X9" si="0">$F2</f>
+        <f t="shared" ref="M9:X9" si="0">$D2</f>
         <v>36000000</v>
       </c>
       <c r="N9" s="18">
@@ -1188,71 +1176,71 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11">
         <v>10</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8">
         <f>1/(60*60)</f>
         <v>2.7777777777777778E-4</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L10" s="27">
-        <f>$F3*(1+$G3)^(DATEDIF($J3,L8, "M") / 12)</f>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,L8, "M") / 12)</f>
         <v>20</v>
       </c>
       <c r="M10" s="27">
-        <f t="shared" ref="M10:X10" si="1">$F3*(1+$G3)^(DATEDIF($J3,M8, "M") / 12)</f>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,M8, "M") / 12)</f>
         <v>21.189261887185907</v>
       </c>
       <c r="N10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,N8, "M") / 12)</f>
         <v>22.44924096618746</v>
       </c>
       <c r="O10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,O8, "M") / 12)</f>
         <v>23.78414230005442</v>
       </c>
       <c r="P10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,P8, "M") / 12)</f>
         <v>25.198420997897465</v>
       </c>
       <c r="Q10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,Q8, "M") / 12)</f>
         <v>26.696797083400689</v>
       </c>
       <c r="R10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,R8, "M") / 12)</f>
         <v>28.284271247461902</v>
       </c>
       <c r="S10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,S8, "M") / 12)</f>
         <v>29.96614153753363</v>
       </c>
       <c r="T10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,T8, "M") / 12)</f>
         <v>31.748021039363987</v>
       </c>
       <c r="U10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,U8, "M") / 12)</f>
         <v>33.635856610148579</v>
       </c>
       <c r="V10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,V8, "M") / 12)</f>
         <v>35.635948725613574</v>
       </c>
       <c r="W10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,W8, "M") / 12)</f>
         <v>37.754972507267738</v>
       </c>
       <c r="X10" s="27">
-        <f t="shared" si="1"/>
+        <f>$D3*(1+$E3)^(DATEDIF($H3,X8, "M") / 12)</f>
         <v>40</v>
       </c>
     </row>
@@ -1260,214 +1248,214 @@
       <c r="B11" s="9"/>
       <c r="C11" s="11"/>
       <c r="E11" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="11">
         <f>1/(1000*1000*1000)</f>
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:X11" si="2">$F4</f>
+        <f t="shared" ref="L11:X11" si="1">$D4</f>
         <v>20</v>
       </c>
       <c r="M11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="N11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="O11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="P11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="Q11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="R11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="S11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="T11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="U11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="V11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="W11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="X11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="11"/>
       <c r="E12" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="11">
         <f>1/(8*1000*1000*1000)</f>
         <v>1.2500000000000001E-10</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="24">
-        <f>$F5</f>
+        <f>$D5</f>
         <v>1000000</v>
       </c>
       <c r="M12" s="24">
-        <f t="shared" ref="M12:X12" si="3">$F5</f>
+        <f t="shared" ref="M12:X12" si="2">$D5</f>
         <v>1000000</v>
       </c>
       <c r="N12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="O12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="P12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="Q12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="R12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="S12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="T12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="U12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="V12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="W12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
       <c r="X12" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="10">
         <v>80000000</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="11">
         <v>1</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L13">
-        <f>$F6</f>
+        <f>$D6</f>
         <v>0.5</v>
       </c>
       <c r="M13" s="18">
-        <f t="shared" ref="M13:X13" si="4">$F6</f>
+        <f t="shared" ref="M13:X13" si="3">$D6</f>
         <v>0.5</v>
       </c>
       <c r="N13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="O13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="P13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="Q13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="R13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="S13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="T13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="U13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="V13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="W13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="X13" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="13">
         <v>5</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="11">
         <f>1/(1000*1000)</f>
@@ -1476,68 +1464,68 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="E15" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F15" s="13">
         <f>1/(1000*1000*1000)</f>
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L15" s="28">
         <f>L9*$F10*L10*$F11*$F13</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="M15" s="28">
-        <f t="shared" ref="M15:X15" si="5">M9*$F10*M10*$F11*$F13</f>
+        <f>M9*$F10*M10*$F11*$F13</f>
         <v>2.118926188718591E-4</v>
       </c>
       <c r="N15" s="28">
-        <f t="shared" si="5"/>
+        <f>N9*$F10*N10*$F11*$F13</f>
         <v>2.2449240966187462E-4</v>
       </c>
       <c r="O15" s="28">
-        <f t="shared" si="5"/>
+        <f>O9*$F10*O10*$F11*$F13</f>
         <v>2.3784142300054421E-4</v>
       </c>
       <c r="P15" s="28">
-        <f t="shared" si="5"/>
+        <f>P9*$F10*P10*$F11*$F13</f>
         <v>2.5198420997897466E-4</v>
       </c>
       <c r="Q15" s="28">
-        <f t="shared" si="5"/>
+        <f>Q9*$F10*Q10*$F11*$F13</f>
         <v>2.6696797083400694E-4</v>
       </c>
       <c r="R15" s="28">
-        <f t="shared" si="5"/>
+        <f>R9*$F10*R10*$F11*$F13</f>
         <v>2.8284271247461907E-4</v>
       </c>
       <c r="S15" s="28">
-        <f t="shared" si="5"/>
+        <f>S9*$F10*S10*$F11*$F13</f>
         <v>2.9966141537533634E-4</v>
       </c>
       <c r="T15" s="28">
-        <f t="shared" si="5"/>
+        <f>T9*$F10*T10*$F11*$F13</f>
         <v>3.1748021039363988E-4</v>
       </c>
       <c r="U15" s="28">
-        <f t="shared" si="5"/>
+        <f>U9*$F10*U10*$F11*$F13</f>
         <v>3.3635856610148582E-4</v>
       </c>
       <c r="V15" s="28">
-        <f t="shared" si="5"/>
+        <f>V9*$F10*V10*$F11*$F13</f>
         <v>3.5635948725613577E-4</v>
       </c>
       <c r="W15" s="28">
-        <f t="shared" si="5"/>
+        <f>W9*$F10*W10*$F11*$F13</f>
         <v>3.7754972507267738E-4</v>
       </c>
       <c r="X15" s="28">
-        <f t="shared" si="5"/>
+        <f>X9*$F10*X10*$F11*$F13</f>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="Z15" s="26">
@@ -1547,75 +1535,75 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K16" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L16" s="24">
         <f>L10*L12*$F12</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M16" s="24">
-        <f t="shared" ref="M16:X16" si="6">M10*M12*$F12</f>
+        <f>M10*M12*$F12</f>
         <v>2.6486577358982386E-3</v>
       </c>
       <c r="N16" s="24">
-        <f t="shared" si="6"/>
+        <f>N10*N12*$F12</f>
         <v>2.8061551207734323E-3</v>
       </c>
       <c r="O16" s="24">
-        <f t="shared" si="6"/>
+        <f>O10*O12*$F12</f>
         <v>2.9730177875068025E-3</v>
       </c>
       <c r="P16" s="24">
-        <f t="shared" si="6"/>
+        <f>P10*P12*$F12</f>
         <v>3.1498026247371832E-3</v>
       </c>
       <c r="Q16" s="24">
-        <f t="shared" si="6"/>
+        <f>Q10*Q12*$F12</f>
         <v>3.3370996354250863E-3</v>
       </c>
       <c r="R16" s="24">
-        <f t="shared" si="6"/>
+        <f>R10*R12*$F12</f>
         <v>3.5355339059327381E-3</v>
       </c>
       <c r="S16" s="24">
-        <f t="shared" si="6"/>
+        <f>S10*S12*$F12</f>
         <v>3.7457676921917038E-3</v>
       </c>
       <c r="T16" s="24">
-        <f t="shared" si="6"/>
+        <f>T10*T12*$F12</f>
         <v>3.9685026299204991E-3</v>
       </c>
       <c r="U16" s="24">
-        <f t="shared" si="6"/>
+        <f>U10*U12*$F12</f>
         <v>4.2044820762685729E-3</v>
       </c>
       <c r="V16" s="24">
-        <f t="shared" si="6"/>
+        <f>V10*V12*$F12</f>
         <v>4.4544935907016971E-3</v>
       </c>
       <c r="W16" s="24">
-        <f t="shared" si="6"/>
+        <f>W10*W12*$F12</f>
         <v>4.7193715634084674E-3</v>
       </c>
       <c r="X16" s="24">
-        <f t="shared" si="6"/>
+        <f>X10*X12*$F12</f>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="8"/>
@@ -1623,18 +1611,18 @@
     <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="16">
         <f>C9*F10*C10*F11*F13</f>
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F18" s="24">
-        <f>C10*F5*F12</f>
+        <f>C10*D5*F12</f>
         <v>1.25E-3</v>
       </c>
       <c r="G18">
-        <f>E18*F6/1000</f>
+        <f>E18*D6/1000</f>
         <v>1.0000000000000001E-7</v>
       </c>
       <c r="I18" s="11">
@@ -1642,61 +1630,61 @@
         <v>1.5555555555555556E-4</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L18" s="29">
         <f>L16*L11*$F13*$F14</f>
         <v>4.9999999999999998E-8</v>
       </c>
       <c r="M18" s="29">
-        <f t="shared" ref="M18:X18" si="7">M16*M11*$F13*$F14</f>
+        <f>M16*M11*$F13*$F14</f>
         <v>5.297315471796477E-8</v>
       </c>
       <c r="N18" s="29">
-        <f t="shared" si="7"/>
+        <f>N16*N11*$F13*$F14</f>
         <v>5.6123102415468647E-8</v>
       </c>
       <c r="O18" s="29">
-        <f t="shared" si="7"/>
+        <f>O16*O11*$F13*$F14</f>
         <v>5.9460355750136046E-8</v>
       </c>
       <c r="P18" s="29">
-        <f t="shared" si="7"/>
+        <f>P16*P11*$F13*$F14</f>
         <v>6.2996052494743653E-8</v>
       </c>
       <c r="Q18" s="29">
-        <f t="shared" si="7"/>
+        <f>Q16*Q11*$F13*$F14</f>
         <v>6.6741992708501728E-8</v>
       </c>
       <c r="R18" s="29">
-        <f t="shared" si="7"/>
+        <f>R16*R11*$F13*$F14</f>
         <v>7.0710678118654758E-8</v>
       </c>
       <c r="S18" s="29">
-        <f t="shared" si="7"/>
+        <f>S16*S11*$F13*$F14</f>
         <v>7.4915353843834077E-8</v>
       </c>
       <c r="T18" s="29">
-        <f t="shared" si="7"/>
+        <f>T16*T11*$F13*$F14</f>
         <v>7.9370052598409976E-8</v>
       </c>
       <c r="U18" s="29">
-        <f t="shared" si="7"/>
+        <f>U16*U11*$F13*$F14</f>
         <v>8.408964152537146E-8</v>
       </c>
       <c r="V18" s="29">
-        <f t="shared" si="7"/>
+        <f>V16*V11*$F13*$F14</f>
         <v>8.9089871814033941E-8</v>
       </c>
       <c r="W18" s="29">
-        <f t="shared" si="7"/>
+        <f>W16*W11*$F13*$F14</f>
         <v>9.4387431268169333E-8</v>
       </c>
       <c r="X18" s="29">
-        <f t="shared" si="7"/>
+        <f>X16*X11*$F13*$F14</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="Z18" s="26">
@@ -1707,18 +1695,18 @@
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="16">
         <f>C13*C14*F10*F11*F13</f>
         <v>1.1111111111111112E-4</v>
       </c>
       <c r="F19" s="17">
-        <f>C14*F5*F12</f>
+        <f>C14*D5*F12</f>
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="G19" s="18">
-        <f>E19*F6/1000</f>
+        <f>E19*D6/1000</f>
         <v>5.5555555555555561E-8</v>
       </c>
       <c r="I19" s="11">
@@ -1726,58 +1714,58 @@
         <v>7.7777777777777782E-8</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L19" s="24">
         <f>L16</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M19" s="24">
-        <f t="shared" ref="M19:X19" si="8">M16</f>
+        <f t="shared" ref="M19:X19" si="4">M16</f>
         <v>2.6486577358982386E-3</v>
       </c>
       <c r="N19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2.8061551207734323E-3</v>
       </c>
       <c r="O19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2.9730177875068025E-3</v>
       </c>
       <c r="P19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.1498026247371832E-3</v>
       </c>
       <c r="Q19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.3370996354250863E-3</v>
       </c>
       <c r="R19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.5355339059327381E-3</v>
       </c>
       <c r="S19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.7457676921917038E-3</v>
       </c>
       <c r="T19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3.9685026299204991E-3</v>
       </c>
       <c r="U19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4.2044820762685729E-3</v>
       </c>
       <c r="V19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4.4544935907016971E-3</v>
       </c>
       <c r="W19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4.7193715634084674E-3</v>
       </c>
       <c r="X19" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1787,74 +1775,74 @@
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L21" s="24">
         <f>L19*L11*$F14*$F13</f>
         <v>4.9999999999999998E-8</v>
       </c>
       <c r="M21" s="24">
-        <f t="shared" ref="M21:X21" si="9">M19*M11*$F14*$F13</f>
+        <f>M19*M11*$F14*$F13</f>
         <v>5.297315471796477E-8</v>
       </c>
       <c r="N21" s="24">
-        <f t="shared" si="9"/>
+        <f>N19*N11*$F14*$F13</f>
         <v>5.6123102415468647E-8</v>
       </c>
       <c r="O21" s="24">
-        <f t="shared" si="9"/>
+        <f>O19*O11*$F14*$F13</f>
         <v>5.9460355750136046E-8</v>
       </c>
       <c r="P21" s="24">
-        <f t="shared" si="9"/>
+        <f>P19*P11*$F14*$F13</f>
         <v>6.2996052494743653E-8</v>
       </c>
       <c r="Q21" s="24">
-        <f t="shared" si="9"/>
+        <f>Q19*Q11*$F14*$F13</f>
         <v>6.6741992708501728E-8</v>
       </c>
       <c r="R21" s="24">
-        <f t="shared" si="9"/>
+        <f>R19*R11*$F14*$F13</f>
         <v>7.0710678118654758E-8</v>
       </c>
       <c r="S21" s="24">
-        <f t="shared" si="9"/>
+        <f>S19*S11*$F14*$F13</f>
         <v>7.4915353843834077E-8</v>
       </c>
       <c r="T21" s="24">
-        <f t="shared" si="9"/>
+        <f>T19*T11*$F14*$F13</f>
         <v>7.9370052598409976E-8</v>
       </c>
       <c r="U21" s="24">
-        <f t="shared" si="9"/>
+        <f>U19*U11*$F14*$F13</f>
         <v>8.408964152537146E-8</v>
       </c>
       <c r="V21" s="24">
-        <f t="shared" si="9"/>
+        <f>V19*V11*$F14*$F13</f>
         <v>8.9089871814033941E-8</v>
       </c>
       <c r="W21" s="24">
-        <f t="shared" si="9"/>
+        <f>W19*W11*$F14*$F13</f>
         <v>9.4387431268169333E-8</v>
       </c>
       <c r="X21" s="24">
-        <f t="shared" si="9"/>
+        <f>X19*X11*$F14*$F13</f>
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="Z21" s="26">
@@ -1865,10 +1853,10 @@
     <row r="22" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="24">
-        <f>F18*F4*F13*F14</f>
+        <f>F18*D4*F13*F14</f>
         <v>2.4999999999999999E-8</v>
       </c>
       <c r="F22">
@@ -1876,7 +1864,7 @@
         <v>1.25E-3</v>
       </c>
       <c r="G22">
-        <f>E22*F6/F14*F15</f>
+        <f>E22*D6/F14*F15</f>
         <v>1.2500000000000002E-11</v>
       </c>
       <c r="I22" s="11">
@@ -1887,10 +1875,10 @@
     <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <f>F19*F4*F13*F14</f>
+        <f>F19*D4*F13*F14</f>
         <v>1.2499999999999999E-8</v>
       </c>
       <c r="F23">
@@ -1898,7 +1886,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="G23" s="18">
-        <f>E23*F6/F14*F15</f>
+        <f>E23*D6/F14*F15</f>
         <v>6.250000000000001E-12</v>
       </c>
       <c r="I23" s="11">
@@ -1912,27 +1900,27 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s">
         <v>47</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
       </c>
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <f>F22*F4*F14*F13</f>
+        <f>F22*D4*F14*F13</f>
         <v>2.4999999999999999E-8</v>
       </c>
       <c r="G26">
-        <f>E26*F6/F14*F15</f>
+        <f>E26*D6/F14*F15</f>
         <v>1.2500000000000002E-11</v>
       </c>
       <c r="I26" s="11">
@@ -1944,15 +1932,15 @@
       <c r="B27" s="12"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="21">
-        <f>F23*F4*F14*F13</f>
+        <f>F23*D4*F14*F13</f>
         <v>1.2499999999999999E-8</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21">
-        <f>E27*F6/F14*F15</f>
+        <f>E27*D6/F14*F15</f>
         <v>6.250000000000001E-12</v>
       </c>
       <c r="H27" s="21"/>
@@ -1977,10 +1965,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +1987,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="22">
         <v>2</v>
